--- a/ziyuan.xlsx
+++ b/ziyuan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mo\Desktop\b-hu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D6F05B-22CA-44E3-8570-80F07E8765F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10659B6-E0C4-4973-837D-76901BA3AAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,6 +584,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -592,12 +593,14 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -924,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
